--- a/student.xlsx
+++ b/student.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9166A992-F28C-4D33-9966-0DDFF9C8BB93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A90A97-FBCA-4285-B03B-AAD5AADE9D41}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>签约城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,18 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>长春市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>沈阳市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>洛阳市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,18 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>武汉市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈尔滨市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长春市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>郑州市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,21 +106,92 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否为教育行业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>否</t>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>民族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息科学与技术学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壮族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化学学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,23 +542,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="19.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -529,160 +577,214 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>30</v>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/student.xlsx
+++ b/student.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A90A97-FBCA-4285-B03B-AAD5AADE9D41}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B9BE38-1E62-41FB-A422-8A1AED175B7C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>签约城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +192,10 @@
   </si>
   <si>
     <t>计算机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海口市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,7 +549,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -731,7 +735,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>14</v>

--- a/student.xlsx
+++ b/student.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B9BE38-1E62-41FB-A422-8A1AED175B7C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563ED42D-7766-4EF0-8F05-69F22979FE19}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>签约城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,10 +83,6 @@
   </si>
   <si>
     <t>洛阳市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海南市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -549,7 +545,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -581,22 +577,22 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -610,25 +606,25 @@
         <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -642,25 +638,25 @@
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -674,25 +670,25 @@
         <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -703,28 +699,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -735,28 +731,28 @@
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -770,25 +766,25 @@
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/student.xlsx
+++ b/student.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563ED42D-7766-4EF0-8F05-69F22979FE19}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD83FA42-EFA4-4280-9468-C0E63412D080}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
   <si>
     <t>签约城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +192,26 @@
   </si>
   <si>
     <t>海口市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,248 +562,269 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="30.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.375" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="4"/>
+    <col min="2" max="2" width="11.875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="14.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
